--- a/MainTop/16.06.2025 завяка/add.xlsx
+++ b/MainTop/16.06.2025 завяка/add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\16.06.2025 завяка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56B337-D911-43A3-8C46-AC749F23D8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3FE153-42A2-4EAD-B501-A3B7A4EA7868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
